--- a/dtpu_configurations/only_integer16/80mhz/mxu_16x16/power.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_16x16/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.04135595262050629</v>
+        <v>0.04633907601237297</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.019605837762355804</v>
+        <v>0.02234395407140255</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.012147797271609306</v>
+        <v>0.01293876487761736</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.010098795406520367</v>
+        <v>0.00985865481197834</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>4.229791520629078E-4</v>
+        <v>6.577983149327338E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0017333232099190354</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1277553290128708</v>
+        <v>0.12782521545886993</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4750709533691406</v>
+        <v>1.4836477041244507</v>
       </c>
     </row>
   </sheetData>
